--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\P4_Pugliese_Alexandre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61899AD8-A75A-4EE1-9468-55C32B50A983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C6B7E0-6431-4EDE-AE59-612054F149C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>Catégorie</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>https://fr.semrush.com/blog/referencer-les-images-pour-le-seo/</t>
-  </si>
-  <si>
-    <t>https://imageseo.io/fr/alt-text-seo/</t>
   </si>
   <si>
     <t>Mettre les H1-H6 ordre séquentiel décroissant</t>
@@ -340,12 +337,6 @@
   </si>
   <si>
     <t>J'ai modifié la largeur des images</t>
-  </si>
-  <si>
-    <t>Décrire une image a l'aide d'une alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai modifié et décris chaque images à l'aide de la balise alt </t>
   </si>
   <si>
     <t>Texte au liens sociaux manquants</t>
@@ -962,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z987"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -996,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1033,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>13</v>
@@ -1073,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>17</v>
@@ -1084,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>19</v>
@@ -1113,7 +1104,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>23</v>
@@ -1133,7 +1124,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>27</v>
@@ -1153,7 +1144,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>38</v>
@@ -1173,7 +1164,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>34</v>
@@ -1184,16 +1175,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="2"/>
@@ -1203,38 +1194,38 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1243,19 +1234,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1270,10 +1261,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>42</v>
@@ -1294,7 +1285,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>46</v>
@@ -1314,50 +1305,50 @@
         <v>49</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,19 +1356,19 @@
         <v>39</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,134 +1376,122 @@
         <v>39</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="39"/>
+      <c r="B22" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="35" t="s">
+      <c r="E24" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>69</v>
-      </c>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
@@ -1522,36 +1501,29 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="48"/>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="48"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2490,7 +2462,6 @@
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{1012A810-598A-4B9D-A570-C53A1929773A}"/>
@@ -2498,23 +2469,22 @@
     <hyperlink ref="F5" r:id="rId3" xr:uid="{236D2A4B-CC0B-48A4-AFEE-1D53876F00CF}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{C11AA8AF-C544-4C3E-BA89-C01474404741}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{8CA73812-B91B-46D4-9C3C-1B1DEFEBC318}"/>
-    <hyperlink ref="F17" r:id="rId6" xr:uid="{FAF5176E-9F88-486E-BCAF-3A2C04D0FFAA}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{F959A3B9-D87E-4E23-AE11-D8A3BC392C7E}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{5554C111-0B68-46B3-AD9C-B480C7808CEA}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{0BBA62E0-1879-44BF-81CA-DB13F4796E26}"/>
-    <hyperlink ref="F18" r:id="rId10" xr:uid="{71239692-AABE-4C2E-A01D-F78678FABF59}"/>
-    <hyperlink ref="F19" r:id="rId11" location="label-buttons-and-links" xr:uid="{DADC732E-84F4-41C7-AAEF-737A2179A04E}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{A96A73E1-41E1-4E0C-A9EC-C5DA7A5D1CB4}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{B8A05FC6-79D2-4DAE-99AE-F34AE2630F70}"/>
-    <hyperlink ref="F9" r:id="rId14" xr:uid="{46530FED-F9E0-419A-9620-3039FAA1B91A}"/>
-    <hyperlink ref="F25" r:id="rId15" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
-    <hyperlink ref="F26" r:id="rId16" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
-    <hyperlink ref="F12" r:id="rId17" location=":~:text=Open%20Graph%20permet%20d'optimiser,smartphone%20ou%20une%20application%20mobile." xr:uid="{D1B9EC3A-F5F3-4CEA-932C-A2DF6AEE82FA}"/>
-    <hyperlink ref="F13" r:id="rId18" xr:uid="{2C3259B2-6299-4480-8857-9B9D91A71D57}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
-    <hyperlink ref="F2" r:id="rId20" xr:uid="{7EAD3EAF-3F80-467B-8297-C32DAE0A94CF}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{F959A3B9-D87E-4E23-AE11-D8A3BC392C7E}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{5554C111-0B68-46B3-AD9C-B480C7808CEA}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{0BBA62E0-1879-44BF-81CA-DB13F4796E26}"/>
+    <hyperlink ref="F17" r:id="rId9" xr:uid="{71239692-AABE-4C2E-A01D-F78678FABF59}"/>
+    <hyperlink ref="F18" r:id="rId10" location="label-buttons-and-links" xr:uid="{DADC732E-84F4-41C7-AAEF-737A2179A04E}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{A96A73E1-41E1-4E0C-A9EC-C5DA7A5D1CB4}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{B8A05FC6-79D2-4DAE-99AE-F34AE2630F70}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{46530FED-F9E0-419A-9620-3039FAA1B91A}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
+    <hyperlink ref="F25" r:id="rId15" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
+    <hyperlink ref="F12" r:id="rId16" location=":~:text=Open%20Graph%20permet%20d'optimiser,smartphone%20ou%20une%20application%20mobile." xr:uid="{D1B9EC3A-F5F3-4CEA-932C-A2DF6AEE82FA}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{2C3259B2-6299-4480-8857-9B9D91A71D57}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
+    <hyperlink ref="F2" r:id="rId19" xr:uid="{7EAD3EAF-3F80-467B-8297-C32DAE0A94CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId21"/>
+  <pageSetup orientation="landscape" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\P4_Pugliese_Alexandre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C6B7E0-6431-4EDE-AE59-612054F149C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3CB2C-FD3F-427E-96E0-1D4126A0E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Catégorie</t>
   </si>
@@ -351,9 +351,6 @@
     <t>J'ai supprimé tout les ".min" pour éviter tout problème d'affichage</t>
   </si>
   <si>
-    <t xml:space="preserve">* Modification possible : Agmenter la police </t>
-  </si>
-  <si>
     <t>* Modification possible : Mettre en place Google Search Console</t>
   </si>
   <si>
@@ -427,6 +424,21 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
+  </si>
+  <si>
+    <t>Liens vers les reseaux sociaux vide</t>
+  </si>
+  <si>
+    <t>Les liens vers les reseaux sociaux sont vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre l'adresse correct du site </t>
+  </si>
+  <si>
+    <t>J'ai modifié le lien vers les reseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai augmenté la police </t>
   </si>
 </sst>
 </file>
@@ -721,7 +733,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -729,9 +740,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -956,7 +968,7 @@
   <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1026,8 +1038,8 @@
       <c r="E2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>124</v>
+      <c r="F2" s="49" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,8 +1175,8 @@
       <c r="D9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>99</v>
+      <c r="E9" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>34</v>
@@ -1178,13 +1190,13 @@
         <v>77</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="2"/>
@@ -1197,13 +1209,13 @@
         <v>78</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>101</v>
+      <c r="E11" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="2"/>
@@ -1213,16 +1225,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>102</v>
+      <c r="E12" s="43" t="s">
+        <v>101</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>69</v>
@@ -1234,16 +1246,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>103</v>
+      <c r="E13" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>70</v>
@@ -1407,62 +1419,60 @@
       </c>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="35"/>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="51"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C24" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E24" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>67</v>
+      <c r="F24" s="46" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,43 +1480,43 @@
         <v>57</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="D26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="E26" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="48"/>
+      <c r="C32" s="47"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2477,11 +2487,11 @@
     <hyperlink ref="F19" r:id="rId11" xr:uid="{A96A73E1-41E1-4E0C-A9EC-C5DA7A5D1CB4}"/>
     <hyperlink ref="F8" r:id="rId12" xr:uid="{B8A05FC6-79D2-4DAE-99AE-F34AE2630F70}"/>
     <hyperlink ref="F9" r:id="rId13" xr:uid="{46530FED-F9E0-419A-9620-3039FAA1B91A}"/>
-    <hyperlink ref="F24" r:id="rId14" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
-    <hyperlink ref="F25" r:id="rId15" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
+    <hyperlink ref="F25" r:id="rId14" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
+    <hyperlink ref="F26" r:id="rId15" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
     <hyperlink ref="F12" r:id="rId16" location=":~:text=Open%20Graph%20permet%20d'optimiser,smartphone%20ou%20une%20application%20mobile." xr:uid="{D1B9EC3A-F5F3-4CEA-932C-A2DF6AEE82FA}"/>
     <hyperlink ref="F13" r:id="rId17" xr:uid="{2C3259B2-6299-4480-8857-9B9D91A71D57}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
     <hyperlink ref="F2" r:id="rId19" xr:uid="{7EAD3EAF-3F80-467B-8297-C32DAE0A94CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\P4_Pugliese_Alexandre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3CB2C-FD3F-427E-96E0-1D4126A0E6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B30E38-9AC4-487C-BA2F-9902908B140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>Catégorie</t>
   </si>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">Augmenter la police a 12 px minimum </t>
   </si>
   <si>
-    <t>https://support.mozilla.org/fr/kb/taille-police-zoom-augmenter-taille-pages</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauvais choix de format sur les images </t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
   </si>
   <si>
-    <t>Un lien doit avoir un nom unique et discernable</t>
-  </si>
-  <si>
     <t>https://web.dev/labels-and-text-alternatives/#label-buttons-and-links</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
   </si>
   <si>
     <t xml:space="preserve">Les fichiers CSS ne sont pas minifié </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crée un nom pour les images des reseaux sociaux </t>
   </si>
   <si>
     <t xml:space="preserve">Modifier les images </t>
@@ -270,12 +261,6 @@
     </r>
   </si>
   <si>
-    <t>Problème dans le header sur la page secondaire</t>
-  </si>
-  <si>
-    <t>Il y avais des ".min" inutile qui empechait l'affichage</t>
-  </si>
-  <si>
     <t>Label mal placé sur les formulaires contact</t>
   </si>
   <si>
@@ -339,18 +324,6 @@
     <t>J'ai modifié la largeur des images</t>
   </si>
   <si>
-    <t>Texte au liens sociaux manquants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai ajouté un nom a chacun des réseaux sociaux </t>
-  </si>
-  <si>
-    <t>Bien écrire les liens dans son header</t>
-  </si>
-  <si>
-    <t>J'ai supprimé tout les ".min" pour éviter tout problème d'affichage</t>
-  </si>
-  <si>
     <t>* Modification possible : Mettre en place Google Search Console</t>
   </si>
   <si>
@@ -426,26 +399,41 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
-    <t>Liens vers les reseaux sociaux vide</t>
-  </si>
-  <si>
-    <t>Les liens vers les reseaux sociaux sont vide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre l'adresse correct du site </t>
-  </si>
-  <si>
-    <t>J'ai modifié le lien vers les reseaux sociaux</t>
-  </si>
-  <si>
     <t xml:space="preserve">J'ai augmenté la police </t>
+  </si>
+  <si>
+    <t>https://www.siteguru.co/seo-academy/best-website-font-size</t>
+  </si>
+  <si>
+    <t>Texte au liens sociaux manquants et vide</t>
+  </si>
+  <si>
+    <t>Un lien doit avoir un nom et un lien</t>
+  </si>
+  <si>
+    <t>Crée un nom pour les images des reseaux sociaux et un lien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai ajouté un nom a chacun des réseaux sociaux et leurs liens </t>
+  </si>
+  <si>
+    <t>J'ai supprimé tout les script et .min pour éviter tout problème d'affichage</t>
+  </si>
+  <si>
+    <t>Ecrire correctement les liens dans le head de la page</t>
+  </si>
+  <si>
+    <t>Il y a des erreurs qui empechent le bon fonctionnement</t>
+  </si>
+  <si>
+    <t>Problème dans le head sur la page principale et secondaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +494,13 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -687,7 +682,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -742,8 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -965,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -999,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1036,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>13</v>
@@ -1076,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>17</v>
@@ -1087,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>19</v>
@@ -1116,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>23</v>
@@ -1136,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>27</v>
@@ -1147,19 +1141,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -1176,10 +1170,10 @@
         <v>33</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>34</v>
+        <v>115</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1187,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="2"/>
@@ -1206,38 +1200,38 @@
         <v>5</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1246,164 +1240,164 @@
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>73</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>123</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>28</v>
@@ -1415,109 +1409,92 @@
         <v>30</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="51"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>122</v>
+      <c r="D24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="47"/>
-    </row>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2448,6 @@
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{1012A810-598A-4B9D-A570-C53A1929773A}"/>
@@ -2487,11 +2463,11 @@
     <hyperlink ref="F19" r:id="rId11" xr:uid="{A96A73E1-41E1-4E0C-A9EC-C5DA7A5D1CB4}"/>
     <hyperlink ref="F8" r:id="rId12" xr:uid="{B8A05FC6-79D2-4DAE-99AE-F34AE2630F70}"/>
     <hyperlink ref="F9" r:id="rId13" xr:uid="{46530FED-F9E0-419A-9620-3039FAA1B91A}"/>
-    <hyperlink ref="F25" r:id="rId14" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
-    <hyperlink ref="F26" r:id="rId15" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{2088402A-163D-4A1F-89C7-7076D8889DBE}"/>
+    <hyperlink ref="F25" r:id="rId15" xr:uid="{E96BABD6-7B55-4CBD-AAE6-776DE300FA50}"/>
     <hyperlink ref="F12" r:id="rId16" location=":~:text=Open%20Graph%20permet%20d'optimiser,smartphone%20ou%20une%20application%20mobile." xr:uid="{D1B9EC3A-F5F3-4CEA-932C-A2DF6AEE82FA}"/>
     <hyperlink ref="F13" r:id="rId17" xr:uid="{2C3259B2-6299-4480-8857-9B9D91A71D57}"/>
-    <hyperlink ref="F24" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
     <hyperlink ref="F2" r:id="rId19" xr:uid="{7EAD3EAF-3F80-467B-8297-C32DAE0A94CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win\Desktop\P4_Pugliese_Alexandre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B30E38-9AC4-487C-BA2F-9902908B140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DC4A8-0B89-46BB-B58D-F54A291DC427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>Catégorie</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Problème dans le head sur la page principale et secondaire</t>
+  </si>
+  <si>
+    <t>https://www.seo.fr/definition/google-analytics</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.fr/marketing/google-search-console</t>
   </si>
 </sst>
 </file>
@@ -718,9 +724,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -738,6 +742,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -962,7 +968,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1038,7 @@
       <c r="E2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1172,7 +1178,7 @@
       <c r="E9" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1189,10 +1195,12 @@
       <c r="D10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="50" t="s">
+        <v>126</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,13 +1213,15 @@
       <c r="C11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="49" t="s">
+        <v>125</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1237,7 @@
       <c r="D12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>92</v>
       </c>
       <c r="F12" s="28" t="s">
@@ -1248,10 +1258,10 @@
       <c r="D13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="32" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="2"/>
@@ -1263,13 +1273,13 @@
       <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="28" t="s">
@@ -1284,13 +1294,13 @@
       <c r="B15" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="34" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="28" t="s">
@@ -1304,13 +1314,13 @@
       <c r="B16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="28" t="s">
@@ -1324,13 +1334,13 @@
       <c r="B17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="36" t="s">
         <v>74</v>
       </c>
       <c r="F17" s="28" t="s">
@@ -1344,10 +1354,10 @@
       <c r="B18" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="18" t="s">
@@ -1364,10 +1374,10 @@
       <c r="B19" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="18" t="s">
@@ -1384,16 +1394,16 @@
       <c r="B20" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="35"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1402,16 +1412,16 @@
       <c r="B21" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1420,34 +1430,34 @@
       <c r="B22" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1464,7 +1474,7 @@
       <c r="D24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="41" t="s">
         <v>107</v>
       </c>
       <c r="F24" s="28" t="s">
@@ -1484,7 +1494,7 @@
       <c r="D25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="41" t="s">
         <v>108</v>
       </c>
       <c r="F25" s="28" t="s">
@@ -1492,7 +1502,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="47"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2469,8 +2479,10 @@
     <hyperlink ref="F13" r:id="rId17" xr:uid="{2C3259B2-6299-4480-8857-9B9D91A71D57}"/>
     <hyperlink ref="F23" r:id="rId18" xr:uid="{404771C0-39F1-42E7-85C4-BE167BDC21BF}"/>
     <hyperlink ref="F2" r:id="rId19" xr:uid="{7EAD3EAF-3F80-467B-8297-C32DAE0A94CF}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{264A227E-5FE4-45EE-B8FB-B1B3429C5EC4}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{CF8F0BF2-5827-4BFA-B420-6FB9835E8834}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId20"/>
+  <pageSetup orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>